--- a/similarities/split_global/harmonic_similarity_timestamps_172.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_172.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G', 'D']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab', 'Eb']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:28.197000', '0:00:34.358000')]</t>
+          <t>('0:00:05.776000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:14.260000', '0:02:21.510000')]</t>
+          <t>('0:00:14.054444', '0:00:21.740249')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=134.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=14.054444</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:36.600000', '0:00:39')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:35.220000', '0:00:40')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:20.140000')]</t>
+          <t>('0:04:05.420000', '0:04:23.440000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:48.700000')]</t>
+          <t>('0:00:21.440000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=12.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=245.42</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=20.56']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=21.44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:41.940000')]</t>
+          <t>('0:01:14.800000', '0:01:21.060000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:09.620000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min'], ['D:7', 'G:min', 'C:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5'], ['G:7', 'C:min', 'F:min']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:11.020000', '0:00:21.680000'), ('0:00:07.900000', '0:00:19.440000')]</t>
+          <t>('0:02:08.760000', '0:02:14.600000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000'), ('0:02:36.152000', '0:02:39.022000')]</t>
+          <t>('0:00:28.450816', '0:00:43.926916')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=11.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:38.900000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:59.800000', '0:01:09.340000')]</t>
+          <t>('0:00:38.200000', '0:00:39.980000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=59.8']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_51</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:min7', 'D:7']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:7', 'D:min7', 'G:7']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:30.780000', '0:00:35.420000')]</t>
+          <t>('0:01:20.220000', '0:01:27.220000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:26.280000', '0:00:30.350000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=30.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-51#t=26.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'C#:min'], ['A', 'B', 'E']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'C#:min'], ['A', 'B', 'E']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:04.155000', '0:00:07.970000'), ('0:00:12.971000', '0:00:23.861000')]</t>
+          <t>('0:00:10.160000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:26.314580', '0:00:36.125011'), ('0:00:07.935986', '0:00:12.498707')]</t>
+          <t>('0:00:01.360000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=4.155', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=10.16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=26.31458', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=7.935986']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=1.36</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'D:min7']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'A:min7']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:00.470000', '0:01:05.070000')]</t>
+          <t>('0:00:11.465419', '0:00:19.151224')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:31.957363', '0:00:36.264330')]</t>
+          <t>('0:00:00.780000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=60.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=11.465419</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=31.957363']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:00:09.162102', '0:00:15.791400')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:02:22.140000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.940000', '0:00:12.540000')]</t>
+          <t>('0:00:41.080000', '0:00:42.940000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:00:39.800000', '0:00:45.400000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=9.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:38.250000', '0:00:42.100000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:06.950000', '0:00:14.410000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=38.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C', 'C:min', 'G/3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:15.565442', '0:00:19.466394')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:17.660000')]</t>
+          <t>('0:00:48.450000', '0:00:52.970000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=48.45</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'G:7', 'C:min']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:14.340000', '0:00:22.660000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:09.898503', '0:00:16.109841')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=14.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=9.898503']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
